--- a/app/IndependenceAssassins.xlsx
+++ b/app/IndependenceAssassins.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\IndyAssassains\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47942BDE-498A-457A-8863-CB732B61E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59047AE-526F-4B41-81E2-790E7A28E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23424" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2148" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Teams" sheetId="2" r:id="rId2"/>
     <sheet name="Players" sheetId="3" r:id="rId3"/>
+    <sheet name="Target Assignments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Overview</t>
   </si>
@@ -76,13 +64,34 @@
     <t>Member 1 ID</t>
   </si>
   <si>
+    <t>Member 1 Status</t>
+  </si>
+  <si>
     <t>Member 2 ID</t>
   </si>
   <si>
+    <t>Member 2 Status</t>
+  </si>
+  <si>
     <t>Member 3 ID</t>
   </si>
   <si>
-    <t>Team Status</t>
+    <t>Member 3 Status</t>
+  </si>
+  <si>
+    <t>Member 4 ID</t>
+  </si>
+  <si>
+    <t>Member 4 Status</t>
+  </si>
+  <si>
+    <t>Team Percentage Alive</t>
+  </si>
+  <si>
+    <t>Currently Hunting</t>
+  </si>
+  <si>
+    <t>alive</t>
   </si>
   <si>
     <t>Player ID</t>
@@ -97,7 +106,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Special Title</t>
+    <t>Number of Confirmed Eliminations</t>
   </si>
   <si>
     <t>Phone Number</t>
@@ -106,25 +115,28 @@
     <t>Password</t>
   </si>
   <si>
-    <t>nromsd9710</t>
-  </si>
-  <si>
-    <t>NIck</t>
+    <t>URL Extension</t>
+  </si>
+  <si>
+    <t>Nick</t>
   </si>
   <si>
     <t>Romsdal</t>
   </si>
   <si>
-    <t>alive</t>
-  </si>
-  <si>
     <t>6152909710</t>
   </si>
   <si>
-    <t>Iams2007!</t>
-  </si>
-  <si>
-    <t>dead</t>
+    <t>Iams2004!</t>
+  </si>
+  <si>
+    <t>9037001e34693700a6d2f85f54d5b193cf82ccff0462b5e0971b5f72c4ebf5d5</t>
+  </si>
+  <si>
+    <t>Hunter ID</t>
+  </si>
+  <si>
+    <t>Target ID</t>
   </si>
 </sst>
 </file>
@@ -132,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +159,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -167,12 +184,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -181,7 +205,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -189,17 +213,17 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -209,7 +233,7 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -217,12 +241,12 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -231,48 +255,78 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,20 +373,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -360,31 +414,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -412,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,180 +460,201 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <f>DATE(2022,9,5)</f>
-        <v>44809</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -621,90 +662,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
-        <f>(C7/C3)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <f>SUM(E3:E1000)</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L3"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
@@ -722,9 +762,24 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L3" s="11"/>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,112 +788,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>904</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
